--- a/Code/Results/Cases/Case_1_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020594889802546</v>
+        <v>1.064374964000652</v>
       </c>
       <c r="D2">
-        <v>1.033258203727341</v>
+        <v>1.042326831799074</v>
       </c>
       <c r="E2">
-        <v>1.031891058611344</v>
+        <v>1.06883447691763</v>
       </c>
       <c r="F2">
-        <v>1.038562003718395</v>
+        <v>1.077623099954508</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050510242593752</v>
+        <v>1.046091716073154</v>
       </c>
       <c r="J2">
-        <v>1.042176588475582</v>
+        <v>1.069335528897711</v>
       </c>
       <c r="K2">
-        <v>1.044272856459214</v>
+        <v>1.045103833680183</v>
       </c>
       <c r="L2">
-        <v>1.042923284130337</v>
+        <v>1.071538598371731</v>
       </c>
       <c r="M2">
-        <v>1.049509030047218</v>
+        <v>1.080303913428988</v>
       </c>
       <c r="N2">
-        <v>1.043656598770543</v>
+        <v>1.070854108003245</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02778687905437</v>
+        <v>1.065827895060356</v>
       </c>
       <c r="D3">
-        <v>1.036370086895451</v>
+        <v>1.042950868779067</v>
       </c>
       <c r="E3">
-        <v>1.038076992093801</v>
+        <v>1.070131245299003</v>
       </c>
       <c r="F3">
-        <v>1.045126261720502</v>
+        <v>1.079008901512465</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052536794092677</v>
+        <v>1.046430912073039</v>
       </c>
       <c r="J3">
-        <v>1.04754767808543</v>
+        <v>1.070441262086014</v>
       </c>
       <c r="K3">
-        <v>1.04655783007584</v>
+        <v>1.045539169177562</v>
       </c>
       <c r="L3">
-        <v>1.048244792414266</v>
+        <v>1.072650227887433</v>
       </c>
       <c r="M3">
-        <v>1.055212552861553</v>
+        <v>1.081506057609866</v>
       </c>
       <c r="N3">
-        <v>1.049035315943709</v>
+        <v>1.071961411459506</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032309494911608</v>
+        <v>1.066767070361258</v>
       </c>
       <c r="D4">
-        <v>1.038336111730048</v>
+        <v>1.043354429969416</v>
       </c>
       <c r="E4">
-        <v>1.041972985799427</v>
+        <v>1.070969710367146</v>
       </c>
       <c r="F4">
-        <v>1.049261655953213</v>
+        <v>1.079905102337275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053801962199966</v>
+        <v>1.046648855836555</v>
       </c>
       <c r="J4">
-        <v>1.050921336003646</v>
+        <v>1.071155324986892</v>
       </c>
       <c r="K4">
-        <v>1.047992864027075</v>
+        <v>1.045819937243988</v>
       </c>
       <c r="L4">
-        <v>1.051589910532868</v>
+        <v>1.073368342291909</v>
       </c>
       <c r="M4">
-        <v>1.058799780619976</v>
+        <v>1.082282881240644</v>
       </c>
       <c r="N4">
-        <v>1.052413764843134</v>
+        <v>1.072676488411606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034181090303795</v>
+        <v>1.067161673579033</v>
       </c>
       <c r="D5">
-        <v>1.039151724380598</v>
+        <v>1.043524031648501</v>
       </c>
       <c r="E5">
-        <v>1.043586629016404</v>
+        <v>1.071322054343536</v>
       </c>
       <c r="F5">
-        <v>1.050974727705215</v>
+        <v>1.080281748718812</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054323245025398</v>
+        <v>1.046740112151821</v>
       </c>
       <c r="J5">
-        <v>1.05231646020181</v>
+        <v>1.071455181078419</v>
       </c>
       <c r="K5">
-        <v>1.048586169204202</v>
+        <v>1.045937751776904</v>
       </c>
       <c r="L5">
-        <v>1.052973848286449</v>
+        <v>1.073669958014341</v>
       </c>
       <c r="M5">
-        <v>1.060284355097429</v>
+        <v>1.082609212099607</v>
       </c>
       <c r="N5">
-        <v>1.053810870277682</v>
+        <v>1.072976770333177</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034493643157421</v>
+        <v>1.067227916104162</v>
       </c>
       <c r="D6">
-        <v>1.039288043338088</v>
+        <v>1.043552505271133</v>
       </c>
       <c r="E6">
-        <v>1.043856182200076</v>
+        <v>1.071381205966604</v>
       </c>
       <c r="F6">
-        <v>1.051260906247539</v>
+        <v>1.08034498260737</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054410162020653</v>
+        <v>1.046755412986168</v>
       </c>
       <c r="J6">
-        <v>1.052549382890755</v>
+        <v>1.071505508653954</v>
       </c>
       <c r="K6">
-        <v>1.048685214245263</v>
+        <v>1.045957520451443</v>
       </c>
       <c r="L6">
-        <v>1.053204939320921</v>
+        <v>1.07372058434096</v>
       </c>
       <c r="M6">
-        <v>1.060532278203558</v>
+        <v>1.082663990193448</v>
       </c>
       <c r="N6">
-        <v>1.054044123743561</v>
+        <v>1.073027169379643</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032334617899917</v>
+        <v>1.066772343950001</v>
       </c>
       <c r="D7">
-        <v>1.038347052216874</v>
+        <v>1.043356696412987</v>
       </c>
       <c r="E7">
-        <v>1.041994640930379</v>
+        <v>1.070974418975885</v>
       </c>
       <c r="F7">
-        <v>1.049284644330872</v>
+        <v>1.079910135556552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053808968658575</v>
+        <v>1.046650076649522</v>
       </c>
       <c r="J7">
-        <v>1.050940067201414</v>
+        <v>1.071159332993653</v>
       </c>
       <c r="K7">
-        <v>1.048000830481246</v>
+        <v>1.045821512352648</v>
       </c>
       <c r="L7">
-        <v>1.051608489113205</v>
+        <v>1.073372373589617</v>
       </c>
       <c r="M7">
-        <v>1.058819708328271</v>
+        <v>1.08228724265022</v>
       </c>
       <c r="N7">
-        <v>1.052432522641351</v>
+        <v>1.072680502110196</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023053645420781</v>
+        <v>1.064866192787771</v>
       </c>
       <c r="D8">
-        <v>1.034320032570312</v>
+        <v>1.042537776280197</v>
       </c>
       <c r="E8">
-        <v>1.034004546138659</v>
+        <v>1.069272859049929</v>
       </c>
       <c r="F8">
-        <v>1.040804514628499</v>
+        <v>1.07809154548644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051204964574369</v>
+        <v>1.046206668237241</v>
       </c>
       <c r="J8">
-        <v>1.044013609262562</v>
+        <v>1.069709513182435</v>
       </c>
       <c r="K8">
-        <v>1.045054349845594</v>
+        <v>1.045251148869458</v>
       </c>
       <c r="L8">
-        <v>1.044742792155785</v>
+        <v>1.071914526344982</v>
       </c>
       <c r="M8">
-        <v>1.051458737101159</v>
+        <v>1.080710402361687</v>
       </c>
       <c r="N8">
-        <v>1.04549622833775</v>
+        <v>1.071228623388551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005612801782332</v>
+        <v>1.061499638445572</v>
       </c>
       <c r="D9">
-        <v>1.026835746385292</v>
+        <v>1.041092943660559</v>
       </c>
       <c r="E9">
-        <v>1.019042617166891</v>
+        <v>1.066269469926485</v>
       </c>
       <c r="F9">
-        <v>1.024933894255169</v>
+        <v>1.074882881397</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046240541888159</v>
+        <v>1.04541349001621</v>
       </c>
       <c r="J9">
-        <v>1.030968902629931</v>
+        <v>1.067143682668286</v>
       </c>
       <c r="K9">
-        <v>1.039507935597098</v>
+        <v>1.044238996619426</v>
       </c>
       <c r="L9">
-        <v>1.031834115627362</v>
+        <v>1.069336366733664</v>
       </c>
       <c r="M9">
-        <v>1.037634986574856</v>
+        <v>1.077923625714835</v>
       </c>
       <c r="N9">
-        <v>1.032432996725452</v>
+        <v>1.068659149100766</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9931256689357641</v>
+        <v>1.059249749538478</v>
       </c>
       <c r="D10">
-        <v>1.021548290678911</v>
+        <v>1.04012850052006</v>
       </c>
       <c r="E10">
-        <v>1.008373289099469</v>
+        <v>1.064263562558941</v>
       </c>
       <c r="F10">
-        <v>1.013622430301114</v>
+        <v>1.072740742857307</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042643282741901</v>
+        <v>1.044876673946236</v>
       </c>
       <c r="J10">
-        <v>1.021614709449553</v>
+        <v>1.065425431613522</v>
       </c>
       <c r="K10">
-        <v>1.035539086390256</v>
+        <v>1.043559413009979</v>
       </c>
       <c r="L10">
-        <v>1.022592989265338</v>
+        <v>1.067611127711979</v>
       </c>
       <c r="M10">
-        <v>1.027750007722444</v>
+        <v>1.076060010268748</v>
       </c>
       <c r="N10">
-        <v>1.023065519517816</v>
+        <v>1.066938457932419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9874809947583371</v>
+        <v>1.058274132871711</v>
       </c>
       <c r="D11">
-        <v>1.019178599361346</v>
+        <v>1.039710591501413</v>
       </c>
       <c r="E11">
-        <v>1.003562286235584</v>
+        <v>1.063394056392611</v>
       </c>
       <c r="F11">
-        <v>1.008523213282036</v>
+        <v>1.071812389857197</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041008355452688</v>
+        <v>1.044642305307129</v>
       </c>
       <c r="J11">
-        <v>1.017384014976223</v>
+        <v>1.064679525899101</v>
       </c>
       <c r="K11">
-        <v>1.033747677242503</v>
+        <v>1.043263993564316</v>
       </c>
       <c r="L11">
-        <v>1.018417334290353</v>
+        <v>1.066862490490331</v>
       </c>
       <c r="M11">
-        <v>1.023286164588202</v>
+        <v>1.075251617858276</v>
       </c>
       <c r="N11">
-        <v>1.018828816973067</v>
+        <v>1.066191492946326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9853453060593852</v>
+        <v>1.057911528038288</v>
       </c>
       <c r="D12">
-        <v>1.018285420925036</v>
+        <v>1.039555316090497</v>
       </c>
       <c r="E12">
-        <v>1.001743983934231</v>
+        <v>1.063070937278278</v>
       </c>
       <c r="F12">
-        <v>1.006596177642937</v>
+        <v>1.071467433421584</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040388575217249</v>
+        <v>1.04455495984662</v>
       </c>
       <c r="J12">
-        <v>1.015783094109925</v>
+        <v>1.064402173991661</v>
       </c>
       <c r="K12">
-        <v>1.033070490228231</v>
+        <v>1.043154087122256</v>
       </c>
       <c r="L12">
-        <v>1.016837848063003</v>
+        <v>1.066584168397645</v>
       </c>
       <c r="M12">
-        <v>1.021598087076625</v>
+        <v>1.074951124206624</v>
       </c>
       <c r="N12">
-        <v>1.01722562261551</v>
+        <v>1.065913747167365</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9858052411633448</v>
+        <v>1.057989317955633</v>
       </c>
       <c r="D13">
-        <v>1.018477613631779</v>
+        <v>1.039588625255723</v>
       </c>
       <c r="E13">
-        <v>1.002135476242993</v>
+        <v>1.063140254109292</v>
       </c>
       <c r="F13">
-        <v>1.007011072165233</v>
+        <v>1.071541433486823</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040522100998941</v>
+        <v>1.044573708914801</v>
       </c>
       <c r="J13">
-        <v>1.016127871141874</v>
+        <v>1.064461680091773</v>
       </c>
       <c r="K13">
-        <v>1.033216296537537</v>
+        <v>1.043177670339212</v>
       </c>
       <c r="L13">
-        <v>1.017177981115389</v>
+        <v>1.066643880592572</v>
       </c>
       <c r="M13">
-        <v>1.02196158558288</v>
+        <v>1.075015591186384</v>
       </c>
       <c r="N13">
-        <v>1.017570889270392</v>
+        <v>1.065973337772965</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9873052743277582</v>
+        <v>1.058244164318103</v>
       </c>
       <c r="D14">
-        <v>1.019105039248046</v>
+        <v>1.039697757316524</v>
       </c>
       <c r="E14">
-        <v>1.003412638922806</v>
+        <v>1.063367350271244</v>
       </c>
       <c r="F14">
-        <v>1.008364613200317</v>
+        <v>1.071783878229386</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040957384622379</v>
+        <v>1.044635091239161</v>
       </c>
       <c r="J14">
-        <v>1.017252297934015</v>
+        <v>1.064656605835505</v>
       </c>
       <c r="K14">
-        <v>1.033691946172822</v>
+        <v>1.043254912228904</v>
       </c>
       <c r="L14">
-        <v>1.018287368352397</v>
+        <v>1.066839489323651</v>
       </c>
       <c r="M14">
-        <v>1.023147254816448</v>
+        <v>1.075226783491928</v>
       </c>
       <c r="N14">
-        <v>1.018696912877551</v>
+        <v>1.066168540333611</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.988224219911112</v>
+        <v>1.058401154558813</v>
       </c>
       <c r="D15">
-        <v>1.019489868857057</v>
+        <v>1.0397649911504</v>
       </c>
       <c r="E15">
-        <v>1.004195313652832</v>
+        <v>1.063507252230542</v>
       </c>
       <c r="F15">
-        <v>1.009194120017115</v>
+        <v>1.071933239729826</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041223893200979</v>
+        <v>1.044672872374472</v>
       </c>
       <c r="J15">
-        <v>1.017941115763074</v>
+        <v>1.064776667529243</v>
       </c>
       <c r="K15">
-        <v>1.033983422408972</v>
+        <v>1.043302480354251</v>
       </c>
       <c r="L15">
-        <v>1.018967053553027</v>
+        <v>1.06695997772023</v>
       </c>
       <c r="M15">
-        <v>1.023873730823522</v>
+        <v>1.075356876638951</v>
       </c>
       <c r="N15">
-        <v>1.019386708906936</v>
+        <v>1.066288772528725</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.993495007752163</v>
+        <v>1.059314467908689</v>
       </c>
       <c r="D16">
-        <v>1.021703793515755</v>
+        <v>1.040156229427608</v>
       </c>
       <c r="E16">
-        <v>1.008688340754849</v>
+        <v>1.064321248665161</v>
       </c>
       <c r="F16">
-        <v>1.013956383173056</v>
+        <v>1.072802337399835</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042750086061161</v>
+        <v>1.044892187562831</v>
       </c>
       <c r="J16">
-        <v>1.02189149299429</v>
+        <v>1.065474894628338</v>
       </c>
       <c r="K16">
-        <v>1.035656372396809</v>
+        <v>1.043578994605594</v>
       </c>
       <c r="L16">
-        <v>1.022866254464095</v>
+        <v>1.067660778226029</v>
       </c>
       <c r="M16">
-        <v>1.028042190000924</v>
+        <v>1.076113629943326</v>
       </c>
       <c r="N16">
-        <v>1.023342696126935</v>
+        <v>1.066987991190389</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9967354012334761</v>
+        <v>1.059886985485903</v>
       </c>
       <c r="D17">
-        <v>1.023070443075386</v>
+        <v>1.04040156251965</v>
       </c>
       <c r="E17">
-        <v>1.011453813615021</v>
+        <v>1.064831593033709</v>
       </c>
       <c r="F17">
-        <v>1.016887918498194</v>
+        <v>1.073347283135196</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043686142662618</v>
+        <v>1.045029242096412</v>
       </c>
       <c r="J17">
-        <v>1.024319613807756</v>
+        <v>1.065912363988094</v>
       </c>
       <c r="K17">
-        <v>1.036685704389326</v>
+        <v>1.043752134733615</v>
       </c>
       <c r="L17">
-        <v>1.025263952810249</v>
+        <v>1.068099940755857</v>
       </c>
       <c r="M17">
-        <v>1.03060618183145</v>
+        <v>1.07658793356077</v>
       </c>
       <c r="N17">
-        <v>1.025774265150465</v>
+        <v>1.067426081806814</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9986027803456082</v>
+        <v>1.060220790708689</v>
       </c>
       <c r="D18">
-        <v>1.023859917329191</v>
+        <v>1.040544632370187</v>
       </c>
       <c r="E18">
-        <v>1.013048616712328</v>
+        <v>1.065129178414473</v>
       </c>
       <c r="F18">
-        <v>1.018578613326315</v>
+        <v>1.073665064647896</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044224736277417</v>
+        <v>1.045108998176065</v>
       </c>
       <c r="J18">
-        <v>1.025718677075436</v>
+        <v>1.06616735029331</v>
       </c>
       <c r="K18">
-        <v>1.037279126313927</v>
+        <v>1.043853013040275</v>
       </c>
       <c r="L18">
-        <v>1.026645852150291</v>
+        <v>1.068355943043519</v>
       </c>
       <c r="M18">
-        <v>1.032084180619184</v>
+        <v>1.076864448768237</v>
       </c>
       <c r="N18">
-        <v>1.02717531524846</v>
+        <v>1.06768143022183</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9992357537685177</v>
+        <v>1.060334587045981</v>
       </c>
       <c r="D19">
-        <v>1.024127833089496</v>
+        <v>1.040593410623166</v>
       </c>
       <c r="E19">
-        <v>1.013589380772332</v>
+        <v>1.065230632258418</v>
       </c>
       <c r="F19">
-        <v>1.019151913792047</v>
+        <v>1.073773407191885</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044407154029651</v>
+        <v>1.045136161517073</v>
       </c>
       <c r="J19">
-        <v>1.026192868240632</v>
+        <v>1.066254263288436</v>
       </c>
       <c r="K19">
-        <v>1.037480309240733</v>
+        <v>1.043887391068476</v>
       </c>
       <c r="L19">
-        <v>1.027114287237302</v>
+        <v>1.068443207270993</v>
       </c>
       <c r="M19">
-        <v>1.03258523484293</v>
+        <v>1.076958710045347</v>
       </c>
       <c r="N19">
-        <v>1.027650179819501</v>
+        <v>1.067768466643379</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9963901068968847</v>
+        <v>1.059825573740926</v>
       </c>
       <c r="D20">
-        <v>1.022924614108757</v>
+        <v>1.040375243582478</v>
       </c>
       <c r="E20">
-        <v>1.011159009847503</v>
+        <v>1.064776847245698</v>
       </c>
       <c r="F20">
-        <v>1.01657539913007</v>
+        <v>1.073288823529299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043586483320384</v>
+        <v>1.045014556641179</v>
       </c>
       <c r="J20">
-        <v>1.024060896615867</v>
+        <v>1.065865446545905</v>
       </c>
       <c r="K20">
-        <v>1.036575993432537</v>
+        <v>1.043733569966057</v>
       </c>
       <c r="L20">
-        <v>1.025008439045095</v>
+        <v>1.068052838715114</v>
       </c>
       <c r="M20">
-        <v>1.030332920018434</v>
+        <v>1.076537059590066</v>
       </c>
       <c r="N20">
-        <v>1.025515180550489</v>
+        <v>1.067379097736476</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9868646572805312</v>
+        <v>1.058169124473303</v>
       </c>
       <c r="D21">
-        <v>1.018920644018004</v>
+        <v>1.039665621901914</v>
       </c>
       <c r="E21">
-        <v>1.003037432099217</v>
+        <v>1.063300480179804</v>
       </c>
       <c r="F21">
-        <v>1.007966962471732</v>
+        <v>1.071712487786231</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040829557018403</v>
+        <v>1.044617023706168</v>
       </c>
       <c r="J21">
-        <v>1.016922015815301</v>
+        <v>1.064599213090059</v>
       </c>
       <c r="K21">
-        <v>1.033552211504797</v>
+        <v>1.043232171242455</v>
       </c>
       <c r="L21">
-        <v>1.017961486992553</v>
+        <v>1.066781894227696</v>
       </c>
       <c r="M21">
-        <v>1.022798954124405</v>
+        <v>1.075164598756407</v>
       </c>
       <c r="N21">
-        <v>1.018366161720344</v>
+        <v>1.066111066083884</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9806480021109163</v>
+        <v>1.057126387955224</v>
       </c>
       <c r="D22">
-        <v>1.016327611409179</v>
+        <v>1.039219191687121</v>
       </c>
       <c r="E22">
-        <v>0.9977485725460888</v>
+        <v>1.062371383335306</v>
       </c>
       <c r="F22">
-        <v>1.002362199600623</v>
+        <v>1.070720658068848</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039023352930442</v>
+        <v>1.04436539740739</v>
       </c>
       <c r="J22">
-        <v>1.012261715321328</v>
+        <v>1.063801405424675</v>
       </c>
       <c r="K22">
-        <v>1.031582409066129</v>
+        <v>1.042915911847891</v>
       </c>
       <c r="L22">
-        <v>1.013364762985237</v>
+        <v>1.065981381638604</v>
       </c>
       <c r="M22">
-        <v>1.017887005652226</v>
+        <v>1.07430039856852</v>
       </c>
       <c r="N22">
-        <v>1.013699243065126</v>
+        <v>1.065312125440105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9839663600718918</v>
+        <v>1.05767928421304</v>
       </c>
       <c r="D23">
-        <v>1.017709728340918</v>
+        <v>1.039455877883784</v>
       </c>
       <c r="E23">
-        <v>1.00057054009985</v>
+        <v>1.062863997156344</v>
       </c>
       <c r="F23">
-        <v>1.005352617315727</v>
+        <v>1.071246516380896</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039988082270871</v>
+        <v>1.04449894916323</v>
       </c>
       <c r="J23">
-        <v>1.014749384973342</v>
+        <v>1.064224498984128</v>
       </c>
       <c r="K23">
-        <v>1.032633448223791</v>
+        <v>1.043083663001788</v>
       </c>
       <c r="L23">
-        <v>1.015818153294835</v>
+        <v>1.066405884693693</v>
       </c>
       <c r="M23">
-        <v>1.020508406372174</v>
+        <v>1.074758650467026</v>
       </c>
       <c r="N23">
-        <v>1.016190445493385</v>
+        <v>1.065735819840942</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9965462004115808</v>
+        <v>1.059853323481271</v>
       </c>
       <c r="D24">
-        <v>1.022990531574286</v>
+        <v>1.040387136066594</v>
       </c>
       <c r="E24">
-        <v>1.011292275189542</v>
+        <v>1.064801584788809</v>
       </c>
       <c r="F24">
-        <v>1.016716672374976</v>
+        <v>1.073315239144417</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043631537866523</v>
+        <v>1.045021192939637</v>
       </c>
       <c r="J24">
-        <v>1.024177852813415</v>
+        <v>1.065886647081698</v>
       </c>
       <c r="K24">
-        <v>1.036625588569595</v>
+        <v>1.043741958929846</v>
       </c>
       <c r="L24">
-        <v>1.025123945962325</v>
+        <v>1.068074122575349</v>
       </c>
       <c r="M24">
-        <v>1.030456449275819</v>
+        <v>1.076560047774547</v>
       </c>
       <c r="N24">
-        <v>1.025632302839251</v>
+        <v>1.067400328379461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010262900504332</v>
+        <v>1.062370919694171</v>
       </c>
       <c r="D25">
-        <v>1.028820189022402</v>
+        <v>1.041466681467129</v>
       </c>
       <c r="E25">
-        <v>1.023024985341622</v>
+        <v>1.067046541040419</v>
       </c>
       <c r="F25">
-        <v>1.029157111081674</v>
+        <v>1.07571291062039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047571875260457</v>
+        <v>1.045619955675213</v>
       </c>
       <c r="J25">
-        <v>1.034449745529274</v>
+        <v>1.067808348964751</v>
       </c>
       <c r="K25">
-        <v>1.040986995815147</v>
+        <v>1.044501507829701</v>
       </c>
       <c r="L25">
-        <v>1.03527608165494</v>
+        <v>1.070004004105082</v>
       </c>
       <c r="M25">
-        <v>1.041319054440202</v>
+        <v>1.07864507091942</v>
       </c>
       <c r="N25">
-        <v>1.03591878282097</v>
+        <v>1.069324759299611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064374964000652</v>
+        <v>1.020594889802547</v>
       </c>
       <c r="D2">
-        <v>1.042326831799074</v>
+        <v>1.033258203727341</v>
       </c>
       <c r="E2">
-        <v>1.06883447691763</v>
+        <v>1.031891058611345</v>
       </c>
       <c r="F2">
-        <v>1.077623099954508</v>
+        <v>1.038562003718396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046091716073154</v>
+        <v>1.050510242593753</v>
       </c>
       <c r="J2">
-        <v>1.069335528897711</v>
+        <v>1.042176588475583</v>
       </c>
       <c r="K2">
-        <v>1.045103833680183</v>
+        <v>1.044272856459215</v>
       </c>
       <c r="L2">
-        <v>1.071538598371731</v>
+        <v>1.042923284130338</v>
       </c>
       <c r="M2">
-        <v>1.080303913428988</v>
+        <v>1.049509030047219</v>
       </c>
       <c r="N2">
-        <v>1.070854108003245</v>
+        <v>1.043656598770544</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065827895060356</v>
+        <v>1.027786879054371</v>
       </c>
       <c r="D3">
-        <v>1.042950868779067</v>
+        <v>1.036370086895452</v>
       </c>
       <c r="E3">
-        <v>1.070131245299003</v>
+        <v>1.038076992093801</v>
       </c>
       <c r="F3">
-        <v>1.079008901512465</v>
+        <v>1.045126261720502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046430912073039</v>
+        <v>1.052536794092677</v>
       </c>
       <c r="J3">
-        <v>1.070441262086014</v>
+        <v>1.04754767808543</v>
       </c>
       <c r="K3">
-        <v>1.045539169177562</v>
+        <v>1.04655783007584</v>
       </c>
       <c r="L3">
-        <v>1.072650227887433</v>
+        <v>1.048244792414267</v>
       </c>
       <c r="M3">
-        <v>1.081506057609866</v>
+        <v>1.055212552861553</v>
       </c>
       <c r="N3">
-        <v>1.071961411459506</v>
+        <v>1.04903531594371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066767070361258</v>
+        <v>1.032309494911607</v>
       </c>
       <c r="D4">
-        <v>1.043354429969416</v>
+        <v>1.038336111730048</v>
       </c>
       <c r="E4">
-        <v>1.070969710367146</v>
+        <v>1.041972985799426</v>
       </c>
       <c r="F4">
-        <v>1.079905102337275</v>
+        <v>1.049261655953212</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046648855836555</v>
+        <v>1.053801962199966</v>
       </c>
       <c r="J4">
-        <v>1.071155324986892</v>
+        <v>1.050921336003646</v>
       </c>
       <c r="K4">
-        <v>1.045819937243988</v>
+        <v>1.047992864027075</v>
       </c>
       <c r="L4">
-        <v>1.073368342291909</v>
+        <v>1.051589910532867</v>
       </c>
       <c r="M4">
-        <v>1.082282881240644</v>
+        <v>1.058799780619975</v>
       </c>
       <c r="N4">
-        <v>1.072676488411606</v>
+        <v>1.052413764843133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067161673579033</v>
+        <v>1.034181090303795</v>
       </c>
       <c r="D5">
-        <v>1.043524031648501</v>
+        <v>1.039151724380598</v>
       </c>
       <c r="E5">
-        <v>1.071322054343536</v>
+        <v>1.043586629016404</v>
       </c>
       <c r="F5">
-        <v>1.080281748718812</v>
+        <v>1.050974727705215</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046740112151821</v>
+        <v>1.054323245025399</v>
       </c>
       <c r="J5">
-        <v>1.071455181078419</v>
+        <v>1.05231646020181</v>
       </c>
       <c r="K5">
-        <v>1.045937751776904</v>
+        <v>1.048586169204202</v>
       </c>
       <c r="L5">
-        <v>1.073669958014341</v>
+        <v>1.052973848286449</v>
       </c>
       <c r="M5">
-        <v>1.082609212099607</v>
+        <v>1.060284355097428</v>
       </c>
       <c r="N5">
-        <v>1.072976770333177</v>
+        <v>1.053810870277681</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067227916104162</v>
+        <v>1.034493643157423</v>
       </c>
       <c r="D6">
-        <v>1.043552505271133</v>
+        <v>1.039288043338088</v>
       </c>
       <c r="E6">
-        <v>1.071381205966604</v>
+        <v>1.043856182200078</v>
       </c>
       <c r="F6">
-        <v>1.08034498260737</v>
+        <v>1.05126090624754</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046755412986168</v>
+        <v>1.054410162020654</v>
       </c>
       <c r="J6">
-        <v>1.071505508653954</v>
+        <v>1.052549382890755</v>
       </c>
       <c r="K6">
-        <v>1.045957520451443</v>
+        <v>1.048685214245263</v>
       </c>
       <c r="L6">
-        <v>1.07372058434096</v>
+        <v>1.053204939320922</v>
       </c>
       <c r="M6">
-        <v>1.082663990193448</v>
+        <v>1.060532278203559</v>
       </c>
       <c r="N6">
-        <v>1.073027169379643</v>
+        <v>1.054044123743562</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066772343950001</v>
+        <v>1.032334617899916</v>
       </c>
       <c r="D7">
-        <v>1.043356696412987</v>
+        <v>1.038347052216874</v>
       </c>
       <c r="E7">
-        <v>1.070974418975885</v>
+        <v>1.041994640930378</v>
       </c>
       <c r="F7">
-        <v>1.079910135556552</v>
+        <v>1.049284644330872</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046650076649522</v>
+        <v>1.053808968658574</v>
       </c>
       <c r="J7">
-        <v>1.071159332993653</v>
+        <v>1.050940067201414</v>
       </c>
       <c r="K7">
-        <v>1.045821512352648</v>
+        <v>1.048000830481245</v>
       </c>
       <c r="L7">
-        <v>1.073372373589617</v>
+        <v>1.051608489113205</v>
       </c>
       <c r="M7">
-        <v>1.08228724265022</v>
+        <v>1.05881970832827</v>
       </c>
       <c r="N7">
-        <v>1.072680502110196</v>
+        <v>1.05243252264135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064866192787771</v>
+        <v>1.023053645420781</v>
       </c>
       <c r="D8">
-        <v>1.042537776280197</v>
+        <v>1.034320032570311</v>
       </c>
       <c r="E8">
-        <v>1.069272859049929</v>
+        <v>1.034004546138658</v>
       </c>
       <c r="F8">
-        <v>1.07809154548644</v>
+        <v>1.040804514628498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046206668237241</v>
+        <v>1.051204964574369</v>
       </c>
       <c r="J8">
-        <v>1.069709513182435</v>
+        <v>1.044013609262562</v>
       </c>
       <c r="K8">
-        <v>1.045251148869458</v>
+        <v>1.045054349845593</v>
       </c>
       <c r="L8">
-        <v>1.071914526344982</v>
+        <v>1.044742792155785</v>
       </c>
       <c r="M8">
-        <v>1.080710402361687</v>
+        <v>1.051458737101159</v>
       </c>
       <c r="N8">
-        <v>1.071228623388551</v>
+        <v>1.045496228337749</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.061499638445572</v>
+        <v>1.005612801782332</v>
       </c>
       <c r="D9">
-        <v>1.041092943660559</v>
+        <v>1.026835746385292</v>
       </c>
       <c r="E9">
-        <v>1.066269469926485</v>
+        <v>1.019042617166892</v>
       </c>
       <c r="F9">
-        <v>1.074882881397</v>
+        <v>1.024933894255169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04541349001621</v>
+        <v>1.046240541888159</v>
       </c>
       <c r="J9">
-        <v>1.067143682668286</v>
+        <v>1.030968902629932</v>
       </c>
       <c r="K9">
-        <v>1.044238996619426</v>
+        <v>1.039507935597099</v>
       </c>
       <c r="L9">
-        <v>1.069336366733664</v>
+        <v>1.031834115627362</v>
       </c>
       <c r="M9">
-        <v>1.077923625714835</v>
+        <v>1.037634986574856</v>
       </c>
       <c r="N9">
-        <v>1.068659149100766</v>
+        <v>1.032432996725453</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059249749538478</v>
+        <v>0.9931256689357639</v>
       </c>
       <c r="D10">
-        <v>1.04012850052006</v>
+        <v>1.021548290678911</v>
       </c>
       <c r="E10">
-        <v>1.064263562558941</v>
+        <v>1.008373289099469</v>
       </c>
       <c r="F10">
-        <v>1.072740742857307</v>
+        <v>1.013622430301114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044876673946236</v>
+        <v>1.042643282741901</v>
       </c>
       <c r="J10">
-        <v>1.065425431613522</v>
+        <v>1.021614709449552</v>
       </c>
       <c r="K10">
-        <v>1.043559413009979</v>
+        <v>1.035539086390256</v>
       </c>
       <c r="L10">
-        <v>1.067611127711979</v>
+        <v>1.022592989265338</v>
       </c>
       <c r="M10">
-        <v>1.076060010268748</v>
+        <v>1.027750007722443</v>
       </c>
       <c r="N10">
-        <v>1.066938457932419</v>
+        <v>1.023065519517816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058274132871711</v>
+        <v>0.9874809947583373</v>
       </c>
       <c r="D11">
-        <v>1.039710591501413</v>
+        <v>1.019178599361346</v>
       </c>
       <c r="E11">
-        <v>1.063394056392611</v>
+        <v>1.003562286235584</v>
       </c>
       <c r="F11">
-        <v>1.071812389857197</v>
+        <v>1.008523213282036</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044642305307129</v>
+        <v>1.041008355452688</v>
       </c>
       <c r="J11">
-        <v>1.064679525899101</v>
+        <v>1.017384014976223</v>
       </c>
       <c r="K11">
-        <v>1.043263993564316</v>
+        <v>1.033747677242503</v>
       </c>
       <c r="L11">
-        <v>1.066862490490331</v>
+        <v>1.018417334290353</v>
       </c>
       <c r="M11">
-        <v>1.075251617858276</v>
+        <v>1.023286164588202</v>
       </c>
       <c r="N11">
-        <v>1.066191492946326</v>
+        <v>1.018828816973067</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057911528038288</v>
+        <v>0.985345306059385</v>
       </c>
       <c r="D12">
-        <v>1.039555316090497</v>
+        <v>1.018285420925036</v>
       </c>
       <c r="E12">
-        <v>1.063070937278278</v>
+        <v>1.001743983934231</v>
       </c>
       <c r="F12">
-        <v>1.071467433421584</v>
+        <v>1.006596177642937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04455495984662</v>
+        <v>1.040388575217249</v>
       </c>
       <c r="J12">
-        <v>1.064402173991661</v>
+        <v>1.015783094109925</v>
       </c>
       <c r="K12">
-        <v>1.043154087122256</v>
+        <v>1.033070490228231</v>
       </c>
       <c r="L12">
-        <v>1.066584168397645</v>
+        <v>1.016837848063003</v>
       </c>
       <c r="M12">
-        <v>1.074951124206624</v>
+        <v>1.021598087076625</v>
       </c>
       <c r="N12">
-        <v>1.065913747167365</v>
+        <v>1.01722562261551</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057989317955633</v>
+        <v>0.9858052411633449</v>
       </c>
       <c r="D13">
-        <v>1.039588625255723</v>
+        <v>1.018477613631779</v>
       </c>
       <c r="E13">
-        <v>1.063140254109292</v>
+        <v>1.002135476242993</v>
       </c>
       <c r="F13">
-        <v>1.071541433486823</v>
+        <v>1.007011072165234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044573708914801</v>
+        <v>1.040522100998941</v>
       </c>
       <c r="J13">
-        <v>1.064461680091773</v>
+        <v>1.016127871141874</v>
       </c>
       <c r="K13">
-        <v>1.043177670339212</v>
+        <v>1.033216296537537</v>
       </c>
       <c r="L13">
-        <v>1.066643880592572</v>
+        <v>1.017177981115389</v>
       </c>
       <c r="M13">
-        <v>1.075015591186384</v>
+        <v>1.021961585582881</v>
       </c>
       <c r="N13">
-        <v>1.065973337772965</v>
+        <v>1.017570889270392</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058244164318103</v>
+        <v>0.9873052743277583</v>
       </c>
       <c r="D14">
-        <v>1.039697757316524</v>
+        <v>1.019105039248046</v>
       </c>
       <c r="E14">
-        <v>1.063367350271244</v>
+        <v>1.003412638922806</v>
       </c>
       <c r="F14">
-        <v>1.071783878229386</v>
+        <v>1.008364613200317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044635091239161</v>
+        <v>1.04095738462238</v>
       </c>
       <c r="J14">
-        <v>1.064656605835505</v>
+        <v>1.017252297934015</v>
       </c>
       <c r="K14">
-        <v>1.043254912228904</v>
+        <v>1.033691946172822</v>
       </c>
       <c r="L14">
-        <v>1.066839489323651</v>
+        <v>1.018287368352398</v>
       </c>
       <c r="M14">
-        <v>1.075226783491928</v>
+        <v>1.023147254816448</v>
       </c>
       <c r="N14">
-        <v>1.066168540333611</v>
+        <v>1.018696912877551</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058401154558813</v>
+        <v>0.9882242199111114</v>
       </c>
       <c r="D15">
-        <v>1.0397649911504</v>
+        <v>1.019489868857056</v>
       </c>
       <c r="E15">
-        <v>1.063507252230542</v>
+        <v>1.004195313652831</v>
       </c>
       <c r="F15">
-        <v>1.071933239729826</v>
+        <v>1.009194120017114</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044672872374472</v>
+        <v>1.041223893200978</v>
       </c>
       <c r="J15">
-        <v>1.064776667529243</v>
+        <v>1.017941115763073</v>
       </c>
       <c r="K15">
-        <v>1.043302480354251</v>
+        <v>1.033983422408972</v>
       </c>
       <c r="L15">
-        <v>1.06695997772023</v>
+        <v>1.018967053553026</v>
       </c>
       <c r="M15">
-        <v>1.075356876638951</v>
+        <v>1.023873730823521</v>
       </c>
       <c r="N15">
-        <v>1.066288772528725</v>
+        <v>1.019386708906935</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.059314467908689</v>
+        <v>0.9934950077521626</v>
       </c>
       <c r="D16">
-        <v>1.040156229427608</v>
+        <v>1.021703793515755</v>
       </c>
       <c r="E16">
-        <v>1.064321248665161</v>
+        <v>1.008688340754849</v>
       </c>
       <c r="F16">
-        <v>1.072802337399835</v>
+        <v>1.013956383173056</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044892187562831</v>
+        <v>1.042750086061161</v>
       </c>
       <c r="J16">
-        <v>1.065474894628338</v>
+        <v>1.02189149299429</v>
       </c>
       <c r="K16">
-        <v>1.043578994605594</v>
+        <v>1.035656372396809</v>
       </c>
       <c r="L16">
-        <v>1.067660778226029</v>
+        <v>1.022866254464095</v>
       </c>
       <c r="M16">
-        <v>1.076113629943326</v>
+        <v>1.028042190000923</v>
       </c>
       <c r="N16">
-        <v>1.066987991190389</v>
+        <v>1.023342696126935</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.059886985485903</v>
+        <v>0.9967354012334753</v>
       </c>
       <c r="D17">
-        <v>1.04040156251965</v>
+        <v>1.023070443075385</v>
       </c>
       <c r="E17">
-        <v>1.064831593033709</v>
+        <v>1.01145381361502</v>
       </c>
       <c r="F17">
-        <v>1.073347283135196</v>
+        <v>1.016887918498194</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045029242096412</v>
+        <v>1.043686142662618</v>
       </c>
       <c r="J17">
-        <v>1.065912363988094</v>
+        <v>1.024319613807755</v>
       </c>
       <c r="K17">
-        <v>1.043752134733615</v>
+        <v>1.036685704389326</v>
       </c>
       <c r="L17">
-        <v>1.068099940755857</v>
+        <v>1.025263952810249</v>
       </c>
       <c r="M17">
-        <v>1.07658793356077</v>
+        <v>1.030606181831449</v>
       </c>
       <c r="N17">
-        <v>1.067426081806814</v>
+        <v>1.025774265150465</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.060220790708689</v>
+        <v>0.9986027803456076</v>
       </c>
       <c r="D18">
-        <v>1.040544632370187</v>
+        <v>1.023859917329191</v>
       </c>
       <c r="E18">
-        <v>1.065129178414473</v>
+        <v>1.013048616712327</v>
       </c>
       <c r="F18">
-        <v>1.073665064647896</v>
+        <v>1.018578613326315</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045108998176065</v>
+        <v>1.044224736277417</v>
       </c>
       <c r="J18">
-        <v>1.06616735029331</v>
+        <v>1.025718677075435</v>
       </c>
       <c r="K18">
-        <v>1.043853013040275</v>
+        <v>1.037279126313927</v>
       </c>
       <c r="L18">
-        <v>1.068355943043519</v>
+        <v>1.02664585215029</v>
       </c>
       <c r="M18">
-        <v>1.076864448768237</v>
+        <v>1.032084180619184</v>
       </c>
       <c r="N18">
-        <v>1.06768143022183</v>
+        <v>1.027175315248459</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.060334587045981</v>
+        <v>0.9992357537685178</v>
       </c>
       <c r="D19">
-        <v>1.040593410623166</v>
+        <v>1.024127833089496</v>
       </c>
       <c r="E19">
-        <v>1.065230632258418</v>
+        <v>1.013589380772332</v>
       </c>
       <c r="F19">
-        <v>1.073773407191885</v>
+        <v>1.019151913792046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045136161517073</v>
+        <v>1.04440715402965</v>
       </c>
       <c r="J19">
-        <v>1.066254263288436</v>
+        <v>1.026192868240632</v>
       </c>
       <c r="K19">
-        <v>1.043887391068476</v>
+        <v>1.037480309240732</v>
       </c>
       <c r="L19">
-        <v>1.068443207270993</v>
+        <v>1.027114287237302</v>
       </c>
       <c r="M19">
-        <v>1.076958710045347</v>
+        <v>1.03258523484293</v>
       </c>
       <c r="N19">
-        <v>1.067768466643379</v>
+        <v>1.027650179819501</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.059825573740926</v>
+        <v>0.9963901068968836</v>
       </c>
       <c r="D20">
-        <v>1.040375243582478</v>
+        <v>1.022924614108756</v>
       </c>
       <c r="E20">
-        <v>1.064776847245698</v>
+        <v>1.011159009847502</v>
       </c>
       <c r="F20">
-        <v>1.073288823529299</v>
+        <v>1.016575399130069</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045014556641179</v>
+        <v>1.043586483320383</v>
       </c>
       <c r="J20">
-        <v>1.065865446545905</v>
+        <v>1.024060896615866</v>
       </c>
       <c r="K20">
-        <v>1.043733569966057</v>
+        <v>1.036575993432537</v>
       </c>
       <c r="L20">
-        <v>1.068052838715114</v>
+        <v>1.025008439045094</v>
       </c>
       <c r="M20">
-        <v>1.076537059590066</v>
+        <v>1.030332920018433</v>
       </c>
       <c r="N20">
-        <v>1.067379097736476</v>
+        <v>1.025515180550488</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058169124473303</v>
+        <v>0.9868646572805302</v>
       </c>
       <c r="D21">
-        <v>1.039665621901914</v>
+        <v>1.018920644018004</v>
       </c>
       <c r="E21">
-        <v>1.063300480179804</v>
+        <v>1.003037432099216</v>
       </c>
       <c r="F21">
-        <v>1.071712487786231</v>
+        <v>1.007966962471732</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044617023706168</v>
+        <v>1.040829557018403</v>
       </c>
       <c r="J21">
-        <v>1.064599213090059</v>
+        <v>1.0169220158153</v>
       </c>
       <c r="K21">
-        <v>1.043232171242455</v>
+        <v>1.033552211504797</v>
       </c>
       <c r="L21">
-        <v>1.066781894227696</v>
+        <v>1.017961486992552</v>
       </c>
       <c r="M21">
-        <v>1.075164598756407</v>
+        <v>1.022798954124404</v>
       </c>
       <c r="N21">
-        <v>1.066111066083884</v>
+        <v>1.018366161720343</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057126387955224</v>
+        <v>0.9806480021109163</v>
       </c>
       <c r="D22">
-        <v>1.039219191687121</v>
+        <v>1.016327611409179</v>
       </c>
       <c r="E22">
-        <v>1.062371383335306</v>
+        <v>0.997748572546089</v>
       </c>
       <c r="F22">
-        <v>1.070720658068848</v>
+        <v>1.002362199600623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04436539740739</v>
+        <v>1.039023352930442</v>
       </c>
       <c r="J22">
-        <v>1.063801405424675</v>
+        <v>1.012261715321328</v>
       </c>
       <c r="K22">
-        <v>1.042915911847891</v>
+        <v>1.031582409066129</v>
       </c>
       <c r="L22">
-        <v>1.065981381638604</v>
+        <v>1.013364762985237</v>
       </c>
       <c r="M22">
-        <v>1.07430039856852</v>
+        <v>1.017887005652226</v>
       </c>
       <c r="N22">
-        <v>1.065312125440105</v>
+        <v>1.013699243065126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05767928421304</v>
+        <v>0.9839663600718912</v>
       </c>
       <c r="D23">
-        <v>1.039455877883784</v>
+        <v>1.017709728340918</v>
       </c>
       <c r="E23">
-        <v>1.062863997156344</v>
+        <v>1.00057054009985</v>
       </c>
       <c r="F23">
-        <v>1.071246516380896</v>
+        <v>1.005352617315726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04449894916323</v>
+        <v>1.039988082270871</v>
       </c>
       <c r="J23">
-        <v>1.064224498984128</v>
+        <v>1.014749384973341</v>
       </c>
       <c r="K23">
-        <v>1.043083663001788</v>
+        <v>1.03263344822379</v>
       </c>
       <c r="L23">
-        <v>1.066405884693693</v>
+        <v>1.015818153294834</v>
       </c>
       <c r="M23">
-        <v>1.074758650467026</v>
+        <v>1.020508406372173</v>
       </c>
       <c r="N23">
-        <v>1.065735819840942</v>
+        <v>1.016190445493385</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.059853323481271</v>
+        <v>0.9965462004115812</v>
       </c>
       <c r="D24">
-        <v>1.040387136066594</v>
+        <v>1.022990531574286</v>
       </c>
       <c r="E24">
-        <v>1.064801584788809</v>
+        <v>1.011292275189543</v>
       </c>
       <c r="F24">
-        <v>1.073315239144417</v>
+        <v>1.016716672374976</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045021192939637</v>
+        <v>1.043631537866523</v>
       </c>
       <c r="J24">
-        <v>1.065886647081698</v>
+        <v>1.024177852813414</v>
       </c>
       <c r="K24">
-        <v>1.043741958929846</v>
+        <v>1.036625588569595</v>
       </c>
       <c r="L24">
-        <v>1.068074122575349</v>
+        <v>1.025123945962325</v>
       </c>
       <c r="M24">
-        <v>1.076560047774547</v>
+        <v>1.03045644927582</v>
       </c>
       <c r="N24">
-        <v>1.067400328379461</v>
+        <v>1.025632302839252</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062370919694171</v>
+        <v>1.010262900504332</v>
       </c>
       <c r="D25">
-        <v>1.041466681467129</v>
+        <v>1.028820189022402</v>
       </c>
       <c r="E25">
-        <v>1.067046541040419</v>
+        <v>1.023024985341622</v>
       </c>
       <c r="F25">
-        <v>1.07571291062039</v>
+        <v>1.029157111081674</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045619955675213</v>
+        <v>1.047571875260457</v>
       </c>
       <c r="J25">
-        <v>1.067808348964751</v>
+        <v>1.034449745529274</v>
       </c>
       <c r="K25">
-        <v>1.044501507829701</v>
+        <v>1.040986995815146</v>
       </c>
       <c r="L25">
-        <v>1.070004004105082</v>
+        <v>1.03527608165494</v>
       </c>
       <c r="M25">
-        <v>1.07864507091942</v>
+        <v>1.041319054440202</v>
       </c>
       <c r="N25">
-        <v>1.069324759299611</v>
+        <v>1.03591878282097</v>
       </c>
     </row>
   </sheetData>
